--- a/add-change-log/ig/ValueSet-eclaire-study-population-vs.xlsx
+++ b/add-change-log/ig/ValueSet-eclaire-study-population-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T13:06:56+00:00</t>
+    <t>2025-07-21T14:14:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
